--- a/packages/config/config-loader/src/test_saver.xlsx
+++ b/packages/config/config-loader/src/test_saver.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,31 +412,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>test</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+        <v>version</v>
+      </c>
+      <c r="B2" t="str">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>a__b</v>
-      </c>
-      <c r="B3" t="str">
+        <v>test</v>
+      </c>
+      <c r="B3">
         <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>a__b</v>
+      </c>
+      <c r="B4" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>a__c</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" t="str">
         <v>456</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
   </ignoredErrors>
 </worksheet>
 </file>